--- a/game mechanics.xlsx
+++ b/game mechanics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\rpg-maquette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C38B6-37B2-4178-9005-B6FAA2D880CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB467786-9225-4823-BFC8-B8A3C3A39183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{345F6705-3B4F-4C43-A48A-B6879057E20B}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,8 +88,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,181 +404,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7911CCF1-1ACE-417F-B8C5-7071E2B33090}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.3</v>
       </c>
       <c r="C2" s="1">
-        <f>2.6/D2</f>
-        <v>0.32500000000000001</v>
+        <f>1/D2</f>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <f>MAX(0.3, 2.6*LOG(A2)+0.1)</f>
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.6</v>
       </c>
       <c r="C3" s="1">
-        <f>2.6/D3</f>
-        <v>0.57777777777777783</v>
+        <f t="shared" ref="C3:C9" si="0">1/D3</f>
+        <v>0.59523809523809523</v>
       </c>
       <c r="D3" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="1">
-        <f>MAX(0.3, 2.6*LOG(A3)+0.1)</f>
-        <v>0.88267798872635117</v>
+        <v>1.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.9</v>
       </c>
       <c r="C4" s="1">
-        <f>2.6/D4</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.9009009009009008</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <f>MAX(0.3, 2.6*LOG(A4)+0.1)</f>
-        <v>1.3405152622711225</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1.3</v>
       </c>
       <c r="C5" s="1">
-        <f>2.6/D5</f>
-        <v>1.3</v>
+        <f t="shared" si="0"/>
+        <v>1.2987012987012987</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <f>MAX(0.3, 2.6*LOG(A5)+0.1)</f>
-        <v>1.6653559774527025</v>
+        <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.6</v>
       </c>
       <c r="C6" s="1">
-        <f>2.6/D6</f>
-        <v>1.625</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F6" s="1">
-        <f>MAX(0.3, 2.6*LOG(A6)+0.1)</f>
-        <v>1.9173220112736491</v>
+        <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" s="1">
+        <v>1.9</v>
       </c>
       <c r="C7" s="1">
-        <f>2.6/D7</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.9047619047619047</v>
       </c>
       <c r="D7" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="1">
-        <f>MAX(0.3, 2.6*LOG(A7)+0.1)</f>
-        <v>2.1231932509974736</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="C8" s="1">
-        <f>2.6/D8</f>
-        <v>2.2608695652173916</v>
+        <f t="shared" si="0"/>
+        <v>2.2988505747126435</v>
       </c>
       <c r="D8" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <f>MAX(0.3, 2.6*LOG(A8)+0.1)</f>
-        <v>2.297254904037068</v>
+        <v>0.435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2.6</v>
       </c>
       <c r="C9" s="1">
-        <f>2.6/D9</f>
-        <v>2.6</v>
+        <f t="shared" si="0"/>
+        <v>2.5974025974025974</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <f>MAX(0.3, 2.6*LOG(A9)+0.1)</f>
-        <v>2.4480339661790533</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -587,12 +556,55 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Math_Settings xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <AppVersion xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <LMS_Mappings xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Invited_Teachers xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Student_Groups xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Templates xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <TeamsChannelId xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <CultureName xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Students xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Is_Collaboration_Space_Locked xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <_activity xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <FolderType xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Owner xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Distribution_Groups xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <NotebookType xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
+    <Teachers xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,61 +1029,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Math_Settings xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <AppVersion xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <LMS_Mappings xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Invited_Teachers xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Student_Groups xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Templates xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <TeamsChannelId xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <CultureName xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Students xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Is_Collaboration_Space_Locked xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <_activity xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <FolderType xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Owner xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Distribution_Groups xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <NotebookType xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76" xsi:nil="true"/>
-    <Teachers xmlns="f555ac22-f1b6-4f26-b067-fda024e7be76">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E28D431-76D1-44CE-A0BA-3BCD82625618}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A95230-514F-4E07-B267-94059E0B2CE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b481e14d-4ac7-4ceb-96b1-3d2fbcac35c5"/>
+    <ds:schemaRef ds:uri="f555ac22-f1b6-4f26-b067-fda024e7be76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1096,18 +1074,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A95230-514F-4E07-B267-94059E0B2CE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E28D431-76D1-44CE-A0BA-3BCD82625618}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b481e14d-4ac7-4ceb-96b1-3d2fbcac35c5"/>
-    <ds:schemaRef ds:uri="f555ac22-f1b6-4f26-b067-fda024e7be76"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>